--- a/country_files/country_tracker (4).xlsx
+++ b/country_files/country_tracker (4).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\breeb\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535B965D-E079-4B9C-8F60-AD591B18DAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3338898F-8D45-4067-A8BD-DF88D53988E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{A18C1247-52D0-48A9-B8F4-F7C120573E21}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
   <si>
     <t>Country</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>Liberia</t>
+  </si>
+  <si>
+    <t>Bree</t>
   </si>
 </sst>
 </file>
@@ -588,8 +591,8 @@
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -733,6 +736,9 @@
       <c r="A16" t="s">
         <v>22</v>
       </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
@@ -761,6 +767,9 @@
       <c r="A21" t="s">
         <v>27</v>
       </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
@@ -771,6 +780,9 @@
       <c r="A23" t="s">
         <v>29</v>
       </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
@@ -784,11 +796,17 @@
       <c r="A25" t="s">
         <v>31</v>
       </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>32</v>
       </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
@@ -818,16 +836,25 @@
       <c r="A30" t="s">
         <v>36</v>
       </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>37</v>
       </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>38</v>
       </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
@@ -838,6 +865,9 @@
       <c r="A34" t="s">
         <v>40</v>
       </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
@@ -848,6 +878,9 @@
       <c r="A36" t="s">
         <v>42</v>
       </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
@@ -869,6 +902,9 @@
       <c r="A39" t="s">
         <v>45</v>
       </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
@@ -884,11 +920,17 @@
       <c r="A42" t="s">
         <v>48</v>
       </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>49</v>
       </c>
+      <c r="B43" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
@@ -899,6 +941,9 @@
       <c r="A45" t="s">
         <v>51</v>
       </c>
+      <c r="B45" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
@@ -918,6 +963,9 @@
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>55</v>
+      </c>
+      <c r="B49" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
